--- a/张蕴东/A10/A10-data.xlsx
+++ b/张蕴东/A10/A10-data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\材科基实验\A10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wang\共享文件\Better-Fundamentals-of-Materials-Science\张蕴东\A10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{633D6409-3760-4F8C-80F6-98D9806086E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DEE932-1763-413E-A2F0-4621654DF61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="3288" windowWidth="15336" windowHeight="10572" xr2:uid="{40842AFC-1390-48D9-95AC-181824D093B0}"/>
+    <workbookView xWindow="14724" yWindow="2772" windowWidth="15336" windowHeight="10572" activeTab="1" xr2:uid="{40842AFC-1390-48D9-95AC-181824D093B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>记录次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +62,60 @@
   </si>
   <si>
     <t>厚度d(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ΔV</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>ΔT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dT/dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ρ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑橡胶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -371,13 +426,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,10 +564,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6955072-D89C-4FCF-A255-9F7269F99DDA}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -774,12 +945,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -794,7 +965,7 @@
       <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -960,12 +1131,12 @@
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -980,7 +1151,7 @@
       <c r="D24" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1154,4 +1325,861 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4031496B-2D83-4B94-B003-1180F25C5959}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>10</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C3" s="27">
+        <v>40</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="G3" s="26">
+        <v>10</v>
+      </c>
+      <c r="H3" s="27">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I3" s="27">
+        <v>40</v>
+      </c>
+      <c r="J3" s="27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>70</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="27">
+        <v>100</v>
+      </c>
+      <c r="D4" s="27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E4" s="28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="26">
+        <v>70</v>
+      </c>
+      <c r="H4" s="27">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I4" s="27">
+        <v>100</v>
+      </c>
+      <c r="J4" s="27">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K4" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>130</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C5" s="27">
+        <v>160</v>
+      </c>
+      <c r="D5" s="27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G5" s="26">
+        <v>130</v>
+      </c>
+      <c r="H5" s="27">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I5" s="27">
+        <v>160</v>
+      </c>
+      <c r="J5" s="27">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K5" s="28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>190</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C6" s="27">
+        <v>220</v>
+      </c>
+      <c r="D6" s="27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G6" s="26">
+        <v>190</v>
+      </c>
+      <c r="H6" s="27">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I6" s="27">
+        <v>220</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.105</v>
+      </c>
+      <c r="K6" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>250</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C7" s="27">
+        <v>280</v>
+      </c>
+      <c r="D7" s="27">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G7" s="26">
+        <v>250</v>
+      </c>
+      <c r="H7" s="27">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I7" s="27">
+        <v>280</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.128</v>
+      </c>
+      <c r="K7" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>310</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.153</v>
+      </c>
+      <c r="C8" s="27">
+        <v>340</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.12</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>310</v>
+      </c>
+      <c r="H8" s="27">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I8" s="27">
+        <v>340</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.151</v>
+      </c>
+      <c r="K8" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>370</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0.157</v>
+      </c>
+      <c r="C9" s="27">
+        <v>400</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>370</v>
+      </c>
+      <c r="H9" s="27">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I9" s="27">
+        <v>400</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K9" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>430</v>
+      </c>
+      <c r="B10" s="27">
+        <v>0.159</v>
+      </c>
+      <c r="C10" s="27">
+        <v>460</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>430</v>
+      </c>
+      <c r="H10" s="27">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I10" s="27">
+        <v>460</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="K10" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>490</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="C11" s="27">
+        <v>520</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.189</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G11" s="26">
+        <v>490</v>
+      </c>
+      <c r="H11" s="27">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I11" s="27">
+        <v>520</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="K11" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>550</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.161</v>
+      </c>
+      <c r="C12" s="27">
+        <v>580</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G12" s="26">
+        <v>550</v>
+      </c>
+      <c r="H12" s="27">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I12" s="27">
+        <v>580</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K12" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>610</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.161</v>
+      </c>
+      <c r="C13" s="27">
+        <v>640</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E13" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G13" s="26">
+        <v>610</v>
+      </c>
+      <c r="H13" s="27">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I13" s="27">
+        <v>640</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K13" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>670</v>
+      </c>
+      <c r="B14" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C14" s="27">
+        <v>700</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>670</v>
+      </c>
+      <c r="H14" s="27">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I14" s="27">
+        <v>700</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K14" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>730</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C15" s="27">
+        <v>760</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>730</v>
+      </c>
+      <c r="H15" s="27">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I15" s="27">
+        <v>760</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.311</v>
+      </c>
+      <c r="K15" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>790</v>
+      </c>
+      <c r="B16" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C16" s="27">
+        <v>820</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="E16" s="28">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G16" s="26">
+        <v>790</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="I16" s="27">
+        <v>820</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="K16" s="28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>850</v>
+      </c>
+      <c r="B17" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C17" s="27">
+        <v>880</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.33</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>850</v>
+      </c>
+      <c r="H17" s="27">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I17" s="27">
+        <v>880</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="K17" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>910</v>
+      </c>
+      <c r="B18" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C18" s="27">
+        <v>940</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E18" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G18" s="26">
+        <v>910</v>
+      </c>
+      <c r="H18" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I18" s="27">
+        <v>940</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.376</v>
+      </c>
+      <c r="K18" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>970</v>
+      </c>
+      <c r="B19" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.377</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G19" s="26">
+        <v>970</v>
+      </c>
+      <c r="H19" s="27">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="27">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="K19" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>1030</v>
+      </c>
+      <c r="B20" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1060</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1030</v>
+      </c>
+      <c r="H20" s="27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1060</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="K20" s="28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>1090</v>
+      </c>
+      <c r="B21" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C21" s="27">
+        <v>1120</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E21" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1090</v>
+      </c>
+      <c r="H21" s="27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1120</v>
+      </c>
+      <c r="J21" s="27">
+        <v>0.439</v>
+      </c>
+      <c r="K21" s="28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
+        <v>1150</v>
+      </c>
+      <c r="B22" s="30">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1180</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E22" s="31">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1150</v>
+      </c>
+      <c r="H22" s="30">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1180</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K22" s="31">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f>(M25-M24)/M24</f>
+        <v>0.36526170769937999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="N23:O23" si="0">(O25-O24)/O24</f>
+        <v>0.55340409088967379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>1310</v>
+      </c>
+      <c r="O24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="34">
+        <f>0.162/0.04</f>
+        <v>4.05</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="34">
+        <f>0.024/60/0.04</f>
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="34">
+        <v>1196</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="34">
+        <f>18*18/2/0.85/0.09/0.09/110</f>
+        <v>213.90374331550808</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="34">
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="34">
+        <f>I25/K25/G25/E25</f>
+        <v>1788.4928370861878</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="34">
+        <f>I25*K25/2/C25</f>
+        <v>0.26407869545124457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="36">
+        <f>0.097/0.04</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="36">
+        <f>0.023/60/0.04</f>
+        <v>9.5833333333333326E-3</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1374</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="36">
+        <f>18*18/2/0.85/0.09/0.09/110</f>
+        <v>213.90374331550808</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="36">
+        <f>I26/K26/G26/E26</f>
+        <v>1624.4825769167123</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="36">
+        <f>I26*K26/2/C26</f>
+        <v>0.44103864601135689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>1190</v>
+      </c>
+      <c r="O27">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f>(M26-M27)/M27</f>
+        <v>0.36511140917370782</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="N28:O28" si="1">(O26-O27)/O27</f>
+        <v>3.5301985942152357E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>